--- a/data/20250914書櫃.xlsx
+++ b/data/20250914書櫃.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kin\Downloads\2500 字 -20250914T011448Z-1-001\2500 字_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5E029D-FDA7-468E-A9A5-E7F1D26AF262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281A5031-8E13-4B79-9A40-EAC5A5458596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="2667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7674" uniqueCount="2683">
   <si>
     <t>田英章毛筆楷書2500字</t>
   </si>
@@ -7831,6 +7831,9 @@
     <t>099</t>
   </si>
   <si>
+    <t>欠</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
@@ -8021,6 +8024,51 @@
   </si>
   <si>
     <t>016</t>
+  </si>
+  <si>
+    <t>矛</t>
+  </si>
+  <si>
+    <t>帥</t>
+  </si>
+  <si>
+    <t>旦</t>
+  </si>
+  <si>
+    <t>拆</t>
+  </si>
+  <si>
+    <t>析</t>
+  </si>
+  <si>
+    <t>些</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>乖</t>
+  </si>
+  <si>
+    <t>柴</t>
+  </si>
+  <si>
+    <t>嘗</t>
+  </si>
+  <si>
+    <t>晉</t>
+  </si>
+  <si>
+    <t>睛</t>
+  </si>
+  <si>
+    <t>遣</t>
+  </si>
+  <si>
+    <t>顧</t>
+  </si>
+  <si>
+    <t>綱</t>
   </si>
 </sst>
 </file>
@@ -8471,15 +8519,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF1CFB9-4813-4602-A68C-5D13A401B9A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1317EF-A2AD-48CE-BCEB-B223DF45B9A8}">
   <sheetPr codeName="田英章毛筆楷書2500字"/>
   <dimension ref="A1:AT170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="15"/>
@@ -8681,49 +8729,49 @@
         <v>361</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>2099</v>
@@ -9986,94 +10034,94 @@
         <v>2524</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="AF12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AI12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AL12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AP12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AQ12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AS12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="13" spans="1:46" ht="15.95" customHeight="1">
@@ -10245,7 +10293,7 @@
         <v>143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>45</v>
+        <v>2603</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>144</v>
@@ -10361,139 +10409,139 @@
         <v>361</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="AD15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="AF15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AI15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AL15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AM15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AO15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AQ15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AR15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AS15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="AT15" s="5" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="16" spans="1:46" ht="15.95" customHeight="1">
@@ -10734,7 +10782,7 @@
         <v>210</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>211</v>
+        <v>2669</v>
       </c>
       <c r="AH17" s="7" t="s">
         <v>212</v>
@@ -10743,7 +10791,7 @@
         <v>213</v>
       </c>
       <c r="AJ17" s="7" t="s">
-        <v>214</v>
+        <v>2670</v>
       </c>
       <c r="AK17" s="7" t="s">
         <v>215</v>
@@ -10781,49 +10829,49 @@
         <v>361</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>2525</v>
@@ -11589,7 +11637,7 @@
         <v>304</v>
       </c>
       <c r="AL23" s="7" t="s">
-        <v>169</v>
+        <v>2668</v>
       </c>
       <c r="AM23" s="7" t="s">
         <v>305</v>
@@ -12447,7 +12495,7 @@
         <v>398</v>
       </c>
       <c r="AR29" s="7" t="s">
-        <v>399</v>
+        <v>777</v>
       </c>
       <c r="AS29" s="7" t="s">
         <v>400</v>
@@ -16149,7 +16197,7 @@
         <v>776</v>
       </c>
       <c r="R56" s="7" t="s">
-        <v>777</v>
+        <v>2682</v>
       </c>
       <c r="S56" s="7" t="s">
         <v>778</v>
@@ -16521,7 +16569,7 @@
         <v>491</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>551</v>
+        <v>2671</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>806</v>
@@ -16635,7 +16683,7 @@
         <v>842</v>
       </c>
       <c r="AN59" s="7" t="s">
-        <v>551</v>
+        <v>2672</v>
       </c>
       <c r="AO59" s="7" t="s">
         <v>843</v>
@@ -17046,7 +17094,7 @@
         <v>883</v>
       </c>
       <c r="AK62" s="7" t="s">
-        <v>378</v>
+        <v>2673</v>
       </c>
       <c r="AL62" s="7" t="s">
         <v>884</v>
@@ -17445,7 +17493,7 @@
         <v>920</v>
       </c>
       <c r="AD65" s="7" t="s">
-        <v>921</v>
+        <v>2675</v>
       </c>
       <c r="AE65" s="7" t="s">
         <v>922</v>
@@ -19056,7 +19104,7 @@
         <v>1076</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>1077</v>
+        <v>2674</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>1078</v>
@@ -19953,7 +20001,7 @@
         <v>1185</v>
       </c>
       <c r="Z83" s="7" t="s">
-        <v>1186</v>
+        <v>2677</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>1187</v>
@@ -22506,7 +22554,7 @@
         <v>1464</v>
       </c>
       <c r="AK101" s="7" t="s">
-        <v>1465</v>
+        <v>2678</v>
       </c>
       <c r="AL101" s="7" t="s">
         <v>1466</v>
@@ -22541,139 +22589,139 @@
         <v>361</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="K102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="P102" s="5" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="S102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="T102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="U102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="V102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="W102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="X102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="Z102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="AA102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="AB102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="AC102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="AD102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="AE102" s="5" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="AF102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AG102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AH102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AI102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AJ102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AK102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AL102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AM102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AN102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AO102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AP102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AQ102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AR102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AS102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="AT102" s="5" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="15.95" customHeight="1">
@@ -22881,7 +22929,7 @@
         <v>1493</v>
       </c>
       <c r="V104" s="7" t="s">
-        <v>1494</v>
+        <v>2681</v>
       </c>
       <c r="W104" s="7" t="s">
         <v>1495</v>
@@ -22896,7 +22944,7 @@
         <v>1498</v>
       </c>
       <c r="AA104" s="7" t="s">
-        <v>1499</v>
+        <v>2676</v>
       </c>
       <c r="AB104" s="7" t="s">
         <v>1501</v>
@@ -22961,139 +23009,139 @@
         <v>361</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="T105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="U105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="V105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="W105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="Y105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="Z105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="AA105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="AB105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="AC105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="AE105" s="5" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="AF105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AG105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AH105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AI105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AJ105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AK105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AL105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AM105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AN105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AO105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AP105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AQ105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AR105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AS105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="AT105" s="5" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="15.95" customHeight="1">
@@ -23381,139 +23429,139 @@
         <v>361</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="N108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="P108" s="5" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="S108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="T108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="U108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="V108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="W108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="X108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AA108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AB108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AC108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AD108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AE108" s="5" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="AF108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AG108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AH108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AI108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AJ108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AK108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AL108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AM108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AN108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AO108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AP108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AQ108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AR108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AS108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="AT108" s="5" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="15.95" customHeight="1">
@@ -23801,139 +23849,139 @@
         <v>361</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="T111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="U111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="V111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="W111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="X111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="Y111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="Z111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="AA111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="AB111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="AC111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="AD111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="AE111" s="5" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="AF111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AG111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AH111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AI111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AJ111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AK111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AL111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AM111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AN111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AO111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AP111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AQ111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AR111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AS111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="AT111" s="5" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="15.95" customHeight="1">
@@ -24221,94 +24269,94 @@
         <v>361</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="O114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="S114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="T114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="U114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="V114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="W114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="X114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="Y114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="Z114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AA114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AB114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AC114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AD114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AE114" s="5" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="AF114" s="5" t="s">
         <v>2504</v>
@@ -24686,94 +24734,94 @@
         <v>1834</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="T117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="V117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="W117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="X117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="Y117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="Z117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AA117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AB117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AC117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AD117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AE117" s="5" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="AF117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AG117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AH117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AI117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AJ117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AK117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AL117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AM117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AN117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AO117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AP117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AQ117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AR117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AS117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="AT117" s="5" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="118" spans="1:46" ht="15.95" customHeight="1">
@@ -25061,139 +25109,139 @@
         <v>361</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="L120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="R120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="T120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="U120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="V120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="W120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="X120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="Y120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="Z120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="AA120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="AB120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="AC120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="AD120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="AE120" s="5" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="AF120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AG120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AH120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AI120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AJ120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AK120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AL120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AM120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AN120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AO120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AP120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AQ120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AR120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AS120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="AT120" s="5" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="121" spans="1:46" ht="15.95" customHeight="1">
@@ -25481,139 +25529,139 @@
         <v>361</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="L123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="M123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="O123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="P123" s="5" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="R123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="T123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="V123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="W123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="X123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="Y123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="Z123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AA123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AB123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AC123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AD123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AE123" s="5" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AF123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AG123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AH123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AI123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AJ123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AK123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AL123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AM123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AN123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AO123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AP123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AQ123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AR123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AS123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="AT123" s="5" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="124" spans="1:46" ht="15.95" customHeight="1">
@@ -25901,139 +25949,139 @@
         <v>361</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="K126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="M126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="O126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="P126" s="5" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="R126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="S126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="T126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="U126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="V126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="W126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="X126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="Y126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="Z126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="AA126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="AB126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="AC126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="AD126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="AE126" s="5" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="AF126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AG126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AH126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AI126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AJ126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AK126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AL126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AM126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AN126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AO126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AP126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AQ126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AR126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AS126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="AT126" s="5" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="127" spans="1:46" ht="15.95" customHeight="1">
@@ -26321,49 +26369,49 @@
         <v>361</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="M129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="N129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="O129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="Q129" s="5" t="s">
         <v>1835</v>
@@ -26411,49 +26459,49 @@
         <v>1835</v>
       </c>
       <c r="AF129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AG129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AH129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AI129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AJ129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AK129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AL129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AM129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AN129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AO129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AP129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AQ129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AR129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AS129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="AT129" s="5" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="130" spans="1:46" ht="15.95" customHeight="1">
@@ -26741,139 +26789,139 @@
         <v>361</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="L132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="M132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="P132" s="5" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="Q132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="R132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="S132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="T132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="U132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="V132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="W132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="X132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="Y132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="Z132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="AA132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="AB132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="AC132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="AD132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="AE132" s="5" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="AF132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AG132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AH132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AI132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AJ132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AK132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AL132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AM132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AN132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AO132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AP132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AQ132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AR132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AS132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="AT132" s="5" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="133" spans="1:46" ht="15.95" customHeight="1">
@@ -27161,139 +27209,139 @@
         <v>361</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="L135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="M135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="Q135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="R135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="S135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="T135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="U135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="V135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="W135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="X135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="Y135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="Z135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="AA135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="AB135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="AC135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="AD135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="AE135" s="5" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="AF135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AG135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AH135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AI135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AJ135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AK135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AL135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AM135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AN135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AO135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AP135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AQ135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AR135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AS135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="AT135" s="5" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="136" spans="1:46" ht="15.95" customHeight="1">
@@ -27581,139 +27629,139 @@
         <v>361</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="K138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="M138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="N138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="R138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="S138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="T138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="V138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="W138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="X138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="Y138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="Z138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="AA138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="AB138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="AC138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="AD138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="AE138" s="5" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="AF138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AG138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AH138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AI138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AJ138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AK138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AL138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AM138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AN138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AO138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AP138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AQ138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AR138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AS138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="AT138" s="5" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="139" spans="1:46" ht="15.95" customHeight="1">
@@ -28001,139 +28049,139 @@
         <v>361</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="L141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="M141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="O141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="Q141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="R141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="S141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="T141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="U141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="V141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="W141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="X141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="Y141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="Z141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AA141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AB141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AC141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AD141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AE141" s="5" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="AF141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AG141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AH141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AI141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AJ141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AK141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AL141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AM141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AN141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AO141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AP141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AQ141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AR141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AS141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="AT141" s="5" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="142" spans="1:46" ht="15.95" customHeight="1">
@@ -28466,94 +28514,94 @@
         <v>1912</v>
       </c>
       <c r="Q144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="R144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="S144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="T144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="V144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="W144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="X144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="Y144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="Z144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="AA144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="AB144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="AC144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="AD144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="AE144" s="5" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="AF144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AG144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AH144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AI144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AJ144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AK144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AL144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AM144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AN144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AO144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AP144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AQ144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AR144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AS144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="AT144" s="5" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="145" spans="1:46" ht="15.95" customHeight="1">
@@ -28841,139 +28889,139 @@
         <v>361</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="K147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="M147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="N147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="O147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="Q147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="R147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="U147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="V147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="W147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="X147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="Y147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="Z147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="AA147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="AB147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="AC147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="AD147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="AE147" s="5" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="AF147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AG147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AH147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AI147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AJ147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AK147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AL147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AM147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AN147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AO147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AP147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AQ147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AR147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AS147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="AT147" s="5" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="148" spans="1:46" ht="15.95" customHeight="1">
@@ -29181,7 +29229,7 @@
         <v>2168</v>
       </c>
       <c r="V149" s="7" t="s">
-        <v>1980</v>
+        <v>2679</v>
       </c>
       <c r="W149" s="7" t="s">
         <v>2169</v>
@@ -29223,7 +29271,7 @@
         <v>2181</v>
       </c>
       <c r="AJ149" s="7" t="s">
-        <v>1964</v>
+        <v>2680</v>
       </c>
       <c r="AK149" s="7" t="s">
         <v>2182</v>
@@ -29261,139 +29309,139 @@
         <v>361</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="K150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="L150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="M150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="N150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="O150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="P150" s="5" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="Q150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="R150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="S150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="T150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="U150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="V150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="W150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="X150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="Y150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="Z150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="AA150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="AB150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="AC150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="AD150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="AE150" s="5" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="AF150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AG150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AH150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AI150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AJ150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AK150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AL150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AM150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AN150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AO150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AP150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AQ150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AR150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AS150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="AT150" s="5" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="151" spans="1:46" ht="15.95" customHeight="1">
@@ -29681,49 +29729,49 @@
         <v>361</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="L153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="M153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="N153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="O153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="Q153" s="5" t="s">
         <v>2164</v>
@@ -29771,49 +29819,49 @@
         <v>2164</v>
       </c>
       <c r="AF153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AG153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AH153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AI153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AJ153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AK153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AL153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AM153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AN153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AO153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AP153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AQ153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AR153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AS153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="AT153" s="5" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="154" spans="1:46" ht="15.95" customHeight="1">
@@ -30101,139 +30149,139 @@
         <v>361</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="K156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="L156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="M156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="N156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="O156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="Q156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="R156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="T156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="U156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="V156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="W156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="X156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="Y156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="Z156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="AA156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="AB156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="AC156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="AD156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="AE156" s="5" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="AF156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AG156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AH156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AI156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AJ156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AK156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AL156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AM156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AN156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AO156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AP156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AQ156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AR156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AS156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="AT156" s="5" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="157" spans="1:46" ht="15.95" customHeight="1">
@@ -30521,49 +30569,49 @@
         <v>361</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="K159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="N159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="O159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="P159" s="5" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="Q159" s="5" t="s">
         <v>2260</v>
@@ -30611,49 +30659,49 @@
         <v>2260</v>
       </c>
       <c r="AF159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AG159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AH159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AI159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AJ159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AK159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AL159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AM159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AN159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AO159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AP159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AQ159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AR159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AS159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="AT159" s="5" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="160" spans="1:46" ht="15.95" customHeight="1">
@@ -30941,94 +30989,94 @@
         <v>361</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="K162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="L162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="M162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="N162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="O162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="P162" s="5" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="Q162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="R162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="S162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="T162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="U162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="V162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="W162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="X162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="Y162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="Z162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="AA162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="AB162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="AC162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="AD162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="AE162" s="5" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="AF162" s="5" t="s">
         <v>2344</v>
@@ -31361,49 +31409,49 @@
         <v>361</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="L165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="M165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="N165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="O165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="P165" s="5" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="Q165" s="5" t="s">
         <v>2419</v>
